--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630600.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630600.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB5DF41-1411-41D2-8271-34074765945E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA230FFA-0E3F-430D-A242-51B8F6CC78E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T061404.001" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063741.178" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="82">
   <si>
     <t>Do Ty</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>HANCA HASIL EMBRO</t>
+  </si>
+  <si>
+    <t>12/KNB/GTX/I/2024</t>
+  </si>
+  <si>
+    <t>11/KNB/GTX/I/2024</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1102,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ24"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3804,46 +3810,253 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24002532</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45342</v>
+      </c>
       <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>1.89</v>
+      </c>
+      <c r="H21">
+        <v>1.89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2104109</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>57300910</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
         <v>76</v>
       </c>
-      <c r="G21">
-        <v>67.2</v>
-      </c>
-      <c r="H21">
-        <v>90.76</v>
-      </c>
-      <c r="K21">
-        <v>-23.56</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="N21" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="AG21">
-        <v>776</v>
+      <c r="AM21" s="1">
+        <v>45299</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21">
+        <v>23001052</v>
+      </c>
+      <c r="AY21">
+        <v>630600</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.6306</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24002534</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45342</v>
+      </c>
       <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>-3.89</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>-3.89</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2104112</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>57300910</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL22" t="s">
         <v>77</v>
       </c>
-      <c r="G22">
-        <v>67.2</v>
-      </c>
-      <c r="H22">
-        <v>67.2</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="AG22">
-        <v>776</v>
+      <c r="AM22" s="1">
+        <v>45299</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX22">
+        <v>23001047</v>
+      </c>
+      <c r="AY22">
+        <v>630600</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.6306</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
@@ -3851,13 +4064,13 @@
         <v>78</v>
       </c>
       <c r="G23">
-        <v>67.2</v>
+        <v>65.2</v>
       </c>
       <c r="H23">
-        <v>90.76</v>
+        <v>92.65</v>
       </c>
       <c r="K23">
-        <v>-23.56</v>
+        <v>-27.45</v>
       </c>
       <c r="L23" s="2">
         <v>1381100</v>
@@ -3872,6 +4085,49 @@
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>79</v>
+      </c>
+      <c r="G24">
+        <v>65.2</v>
+      </c>
+      <c r="H24">
+        <v>65.2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1381100</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1381100</v>
+      </c>
+      <c r="AG24">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25">
+        <v>65.2</v>
+      </c>
+      <c r="H25">
+        <v>92.65</v>
+      </c>
+      <c r="K25">
+        <v>-27.45</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1381100</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1381100</v>
+      </c>
+      <c r="AG25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630600.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630600.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA230FFA-0E3F-430D-A242-51B8F6CC78E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A76749-F740-4EBD-8AD0-57D967645DE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063741.178" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063959.837" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="85">
   <si>
     <t>Do Ty</t>
   </si>
@@ -254,6 +254,15 @@
   </si>
   <si>
     <t>11/KNB/GTX/I/2024</t>
+  </si>
+  <si>
+    <t>CV.CHAWAN GARMEN ABADI</t>
+  </si>
+  <si>
+    <t>ANTOS PRASETYO</t>
+  </si>
+  <si>
+    <t>PREPARATION CELULER MAJA 2</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1108,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ26"/>
+  <dimension ref="A1:AZ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4060,74 +4069,476 @@
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>24002437</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45346</v>
+      </c>
       <c r="F23" t="s">
         <v>78</v>
       </c>
-      <c r="G23">
-        <v>65.2</v>
-      </c>
-      <c r="H23">
-        <v>92.65</v>
-      </c>
-      <c r="K23">
-        <v>-27.45</v>
+      <c r="G23" s="2">
+        <v>19197.849999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>19197.849999999999</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
       </c>
       <c r="L23" s="2">
-        <v>1381100</v>
+        <v>292518000</v>
       </c>
       <c r="N23" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="AG23">
-        <v>776</v>
+        <v>292518000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15237</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23">
+        <v>2106181</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>5417</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>56804163</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45346</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX23">
+        <v>23001093</v>
+      </c>
+      <c r="AY23">
+        <v>630600</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.6306</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>24002438</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45348</v>
+      </c>
       <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24">
-        <v>65.2</v>
-      </c>
-      <c r="H24">
-        <v>65.2</v>
+        <v>78</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10111.66</v>
+      </c>
+      <c r="H24" s="2">
+        <v>10111.66</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
       </c>
       <c r="L24" s="2">
-        <v>1381100</v>
+        <v>156600000</v>
       </c>
       <c r="N24" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="AG24">
-        <v>776</v>
+        <v>156600000</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15487</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s">
+        <v>72</v>
+      </c>
+      <c r="X24">
+        <v>2106181</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>2610</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>56804163</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX24">
+        <v>23001118</v>
+      </c>
+      <c r="AY24">
+        <v>630600</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.6306</v>
       </c>
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24002637</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45348</v>
+      </c>
       <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>5.37</v>
+      </c>
+      <c r="H25">
+        <v>5.37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>84864</v>
+      </c>
+      <c r="N25" s="2">
+        <v>84864</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2105437</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>55376507</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR25" t="s">
         <v>80</v>
       </c>
-      <c r="G25">
-        <v>65.2</v>
-      </c>
-      <c r="H25">
-        <v>92.65</v>
-      </c>
-      <c r="K25">
-        <v>-27.45</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="N25" s="2">
-        <v>1381100</v>
-      </c>
-      <c r="AG25">
-        <v>776</v>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX25">
+        <v>24001153</v>
+      </c>
+      <c r="AY25">
+        <v>630600</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.6306</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>81</v>
+      </c>
+      <c r="G26" s="2">
+        <v>29380.080000000002</v>
+      </c>
+      <c r="H26" s="2">
+        <v>29407.53</v>
+      </c>
+      <c r="K26">
+        <v>-27.45</v>
+      </c>
+      <c r="L26" s="2">
+        <v>450583964</v>
+      </c>
+      <c r="N26" s="2">
+        <v>450583964</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="2">
+        <v>29380.080000000002</v>
+      </c>
+      <c r="H27" s="2">
+        <v>29380.080000000002</v>
+      </c>
+      <c r="L27" s="2">
+        <v>450583964</v>
+      </c>
+      <c r="N27" s="2">
+        <v>450583964</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="2">
+        <v>29380.080000000002</v>
+      </c>
+      <c r="H28" s="2">
+        <v>29407.53</v>
+      </c>
+      <c r="K28">
+        <v>-27.45</v>
+      </c>
+      <c r="L28" s="2">
+        <v>450583964</v>
+      </c>
+      <c r="N28" s="2">
+        <v>450583964</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
